--- a/biology/Botanique/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(M)/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(M).xlsx
+++ b/biology/Botanique/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(M)/Écozone_néotropicale___plantes_à_graines_par_nom_scientifique_(M).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(M)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 à compléter par ordre alphabétique
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(M)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,12 +526,51 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Mai
-Maihuenia - fam. Cactacées (Cactus)
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Maihuenia - fam. Cactacées (Cactus)
 Maihuenia patagonica
-Maihuenia poeppigii
-Mam
-Mammea - Clusiacées
+Maihuenia poeppigii</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Ma</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Mam</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mammea - Clusiacées
 Mammea americana - Abricotier des Antilles
 Mammillaria - fam. Cactacées (Cactus)
 Mammillaria albicoma
@@ -697,12 +748,80 @@
 Mammillaria zephyranthoides
 Mammillaria zeyeriana
 Mammilloydia - fam. Cactacées (Cactus)
-Mammilloydia candida
-Mar
-Marcgraviastrum
-Marcgraviastrum subsessile
-Mat
-Matucana - fam. Cactacées (Cactus)
+Mammilloydia candida</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Ma</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mar</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Marcgraviastrum
+Marcgraviastrum subsessile</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Ma</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mat</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Matucana - fam. Cactacées (Cactus)
 Matucanaaurantiaca
 Matucanaaureiflora
 Matucanafruticosa
@@ -722,34 +841,39 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Me</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mel
-Melocactus - fam. Cactacées (Cactus)
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Mel</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Melocactus - fam. Cactacées (Cactus)
 Melocactusandinus
 Melocactusazureus
 Melocactusbahiensis
@@ -788,34 +912,39 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Mi</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mic
-Micranthocereus' - fam. Cactacées (Cactus)
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mic</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Micranthocereus' - fam. Cactacées (Cactus)
 Micranthocereus albicephalus
 Micranthocereus auriazureus
 Micranthocereus dolichospermaticus
@@ -825,105 +954,151 @@
 Micranthocereus polyanthus
 Micranthocereus purpureus
 Micranthocereus streckeri
-Micranthocereus violaciflorus
-Mil
-Mila - fam. Cactacées (Cactus)
+Micranthocereus violaciflorus</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Mi</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Mil</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mila - fam. Cactacées (Cactus)
 Mila caespitosa
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Mo</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Monstera -fam. Araceae
 Monstera deliciosa - fruit à pain mexicain</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Mu</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mus
-Musa - fam. Musacées
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Mus</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Musa - fam. Musacées
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Écozone_néotropicale_:_plantes_à_graines_par_nom_scientifique_(M)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89cozone_n%C3%A9otropicale_:_plantes_%C3%A0_graines_par_nom_scientifique_(M)</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>My</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Myr
-Myrica
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Myr</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Myrica
 Myrica pubescens
 Myrtillocactus - fam. Cactacées (Cactus)
 Myrtillocactus cochal
